--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -882,10 +894,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -929,28 +941,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -975,28 +987,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1241,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1276,28 +1288,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1334,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1518,10 +1530,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1565,28 +1577,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1611,28 +1623,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1836,10 +1848,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1883,28 +1895,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1929,28 +1941,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2183,10 +2195,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J71" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2230,28 +2242,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2276,28 +2288,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2559,10 +2571,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2606,28 +2618,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2652,28 +2664,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2848,10 +2860,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2895,28 +2907,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2941,28 +2953,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3166,10 +3178,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3213,28 +3225,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3259,28 +3271,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3513,10 +3525,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3560,28 +3572,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3606,28 +3618,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3831,10 +3843,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="J128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3878,28 +3890,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3924,28 +3936,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4178,10 +4190,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="J140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4225,28 +4237,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4271,28 +4283,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4496,10 +4508,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4543,28 +4555,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4589,28 +4601,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4814,10 +4826,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
+      <c r="J162" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4861,28 +4873,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4907,28 +4919,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5074,10 +5086,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
+      <c r="J171" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5121,28 +5133,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5167,28 +5179,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5305,10 +5317,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
+      <c r="J179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5352,28 +5364,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5398,28 +5410,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -547,10 +595,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -594,28 +642,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="4">
+      <c r="A16" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="4">
+      <c r="B16" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="4">
+      <c r="D16" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="4">
+      <c r="E16" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="4">
+      <c r="F16" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="4">
+      <c r="G16" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="4">
+      <c r="H16" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -640,28 +688,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="4">
+      <c r="D18" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="4">
+      <c r="I18" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -894,10 +942,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -941,28 +989,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="4">
+      <c r="A28" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="4">
+      <c r="C28" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="4">
+      <c r="D28" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -987,28 +1035,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="4">
+      <c r="C30" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="4">
+      <c r="D30" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="4">
+      <c r="G30" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="4">
+      <c r="H30" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="4">
+      <c r="I30" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1241,10 +1289,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1288,28 +1336,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="4">
+      <c r="A40" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="C40" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="4">
+      <c r="D40" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1334,28 +1382,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="4">
+      <c r="I42" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1530,10 +1578,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1577,28 +1625,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="4">
+      <c r="A50" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="4">
+      <c r="C50" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="4">
+      <c r="D50" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1623,28 +1671,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="4">
+      <c r="I52" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1848,10 +1896,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1895,28 +1943,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="4">
+      <c r="A61" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1941,28 +1989,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="4">
+      <c r="I63" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2195,10 +2243,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="J71" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="K71" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2242,28 +2290,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="4">
+      <c r="A73" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D73" t="s" s="4">
+      <c r="D73" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2288,28 +2336,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="D75" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="4">
+      <c r="I75" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2571,10 +2619,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="J84" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K84" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2618,28 +2666,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="4">
+      <c r="A86" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="4">
+      <c r="D86" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2664,28 +2712,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="4">
+      <c r="C88" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="4">
+      <c r="D88" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="4">
+      <c r="I88" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2860,10 +2908,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="J94" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="K94" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2907,28 +2955,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="4">
+      <c r="A96" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="4">
+      <c r="C96" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D96" t="s" s="4">
+      <c r="D96" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2953,28 +3001,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="4">
+      <c r="I98" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3178,10 +3226,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="4" t="s">
+      <c r="J105" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="4" t="s">
+      <c r="K105" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3225,28 +3273,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="4">
+      <c r="A107" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="4">
+      <c r="C107" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="4">
+      <c r="D107" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3271,28 +3319,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="4">
+      <c r="C109" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="4">
+      <c r="D109" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="4">
+      <c r="G109" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="4">
+      <c r="H109" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="4">
+      <c r="I109" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3525,10 +3573,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="4" t="s">
+      <c r="J117" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="4" t="s">
+      <c r="K117" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3572,28 +3620,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="4">
+      <c r="A119" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="4">
+      <c r="C119" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="4">
+      <c r="D119" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3618,28 +3666,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="4">
+      <c r="C121" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="4">
+      <c r="D121" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="4">
+      <c r="I121" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3843,10 +3891,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="4" t="s">
+      <c r="J128" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="4" t="s">
+      <c r="K128" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3890,28 +3938,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="4">
+      <c r="A130" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="4">
+      <c r="B130" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="4">
+      <c r="C130" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="4">
+      <c r="D130" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="4">
+      <c r="E130" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="4">
+      <c r="F130" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="4">
+      <c r="G130" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="4">
+      <c r="H130" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3936,28 +3984,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="4">
+      <c r="C132" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="4">
+      <c r="D132" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="4">
+      <c r="I132" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4190,10 +4238,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="4" t="s">
+      <c r="J140" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="4" t="s">
+      <c r="K140" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4237,28 +4285,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="4">
+      <c r="A142" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4283,28 +4331,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="4">
+      <c r="C144" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="4">
+      <c r="D144" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="4">
+      <c r="G144" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="4">
+      <c r="H144" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="4">
+      <c r="I144" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4508,10 +4556,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="4" t="s">
+      <c r="J151" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="4" t="s">
+      <c r="K151" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4555,28 +4603,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="4">
+      <c r="A153" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="4">
+      <c r="B153" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="4">
+      <c r="C153" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="4">
+      <c r="D153" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="4">
+      <c r="E153" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="4">
+      <c r="F153" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="4">
+      <c r="G153" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="4">
+      <c r="H153" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4601,28 +4649,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="4">
+      <c r="C155" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="4">
+      <c r="D155" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="4">
+      <c r="I155" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4826,10 +4874,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="4" t="s">
+      <c r="J162" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="4" t="s">
+      <c r="K162" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4873,28 +4921,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="4">
+      <c r="A164" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="4">
+      <c r="C164" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D164" t="s" s="4">
+      <c r="D164" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4919,28 +4967,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="4">
+      <c r="I166" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5086,10 +5134,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="4" t="s">
+      <c r="J171" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="4" t="s">
+      <c r="K171" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5133,28 +5181,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="4">
+      <c r="A173" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="4">
+      <c r="B173" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="4">
+      <c r="C173" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D173" t="s" s="4">
+      <c r="D173" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="4">
+      <c r="E173" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="4">
+      <c r="F173" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="4">
+      <c r="G173" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="4">
+      <c r="H173" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5179,28 +5227,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="4">
+      <c r="B175" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="4">
+      <c r="C175" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="4">
+      <c r="D175" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="4">
+      <c r="E175" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="4">
+      <c r="F175" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="4">
+      <c r="G175" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="4">
+      <c r="H175" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="4">
+      <c r="I175" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5317,10 +5365,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="4" t="s">
+      <c r="J179" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="4" t="s">
+      <c r="K179" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5364,28 +5412,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="4">
+      <c r="A181" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="4">
+      <c r="B181" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="4">
+      <c r="C181" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="4">
+      <c r="D181" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="4">
+      <c r="E181" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="4">
+      <c r="F181" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="4">
+      <c r="G181" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="4">
+      <c r="H181" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5410,28 +5458,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="4">
+      <c r="C183" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="4">
+      <c r="D183" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="4">
+      <c r="I183" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5519,10 +5567,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="4" t="s">
+      <c r="J186" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="4" t="s">
+      <c r="K186" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -595,10 +613,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -642,28 +660,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="12">
+      <c r="A16" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="12">
+      <c r="B16" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C16" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="12">
+      <c r="D16" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="12">
+      <c r="E16" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="12">
+      <c r="F16" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="12">
+      <c r="G16" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="12">
+      <c r="H16" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -688,28 +706,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="D18" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="12">
+      <c r="I18" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -942,10 +960,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -989,28 +1007,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="12">
+      <c r="A28" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="12">
+      <c r="C28" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D28" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1035,28 +1053,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="12">
+      <c r="C30" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="12">
+      <c r="D30" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="12">
+      <c r="F30" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="12">
+      <c r="I30" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1289,10 +1307,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1336,28 +1354,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="12">
+      <c r="A40" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="12">
+      <c r="C40" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="D40" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1382,28 +1400,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C42" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="12">
+      <c r="I42" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1578,10 +1596,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="K48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1625,28 +1643,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="12">
+      <c r="A50" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="12">
+      <c r="C50" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="12">
+      <c r="D50" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1671,28 +1689,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="12">
+      <c r="I52" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1896,10 +1914,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="12" t="s">
+      <c r="K59" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1943,28 +1961,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="12">
+      <c r="A61" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1989,28 +2007,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="12">
+      <c r="I63" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2243,10 +2261,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="12" t="s">
+      <c r="J71" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K71" s="12" t="s">
+      <c r="K71" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2290,28 +2308,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="12">
+      <c r="A73" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="12">
+      <c r="C73" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D73" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2336,28 +2354,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="12">
+      <c r="C75" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="12">
+      <c r="D75" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="12">
+      <c r="I75" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2619,10 +2637,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="12" t="s">
+      <c r="J84" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="12" t="s">
+      <c r="K84" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2666,28 +2684,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="12">
+      <c r="A86" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C86" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2712,28 +2730,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="12">
+      <c r="C88" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="12">
+      <c r="D88" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="12">
+      <c r="I88" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2908,10 +2926,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="12" t="s">
+      <c r="J94" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="12" t="s">
+      <c r="K94" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2955,28 +2973,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="12">
+      <c r="A96" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="12">
+      <c r="C96" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D96" t="s" s="12">
+      <c r="D96" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3001,28 +3019,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="12">
+      <c r="I98" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3226,10 +3244,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="12" t="s">
+      <c r="J105" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="12" t="s">
+      <c r="K105" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3273,28 +3291,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="12">
+      <c r="A107" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="12">
+      <c r="C107" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="12">
+      <c r="D107" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3319,28 +3337,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="12">
+      <c r="C109" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="12">
+      <c r="D109" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="12">
+      <c r="F109" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="12">
+      <c r="I109" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3573,10 +3591,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="12" t="s">
+      <c r="J117" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="12" t="s">
+      <c r="K117" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3620,28 +3638,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="12">
+      <c r="A119" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="12">
+      <c r="C119" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="12">
+      <c r="D119" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3666,28 +3684,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="12">
+      <c r="C121" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="12">
+      <c r="D121" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="12">
+      <c r="I121" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3891,10 +3909,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="12" t="s">
+      <c r="J128" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="12" t="s">
+      <c r="K128" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3938,28 +3956,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="12">
+      <c r="A130" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="12">
+      <c r="B130" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="12">
+      <c r="C130" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="12">
+      <c r="D130" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="12">
+      <c r="E130" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="12">
+      <c r="F130" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="12">
+      <c r="G130" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="12">
+      <c r="H130" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3984,28 +4002,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="12">
+      <c r="C132" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="12">
+      <c r="D132" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="12">
+      <c r="I132" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4238,10 +4256,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="12" t="s">
+      <c r="J140" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="12" t="s">
+      <c r="K140" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4285,28 +4303,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="12">
+      <c r="A142" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4331,28 +4349,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="12">
+      <c r="B144" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="12">
+      <c r="C144" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="12">
+      <c r="D144" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F144" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="12">
+      <c r="G144" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="12">
+      <c r="H144" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="12">
+      <c r="I144" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4556,10 +4574,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="12" t="s">
+      <c r="J151" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="12" t="s">
+      <c r="K151" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4603,28 +4621,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="12">
+      <c r="A153" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="12">
+      <c r="C153" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="12">
+      <c r="D153" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="12">
+      <c r="E153" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="12">
+      <c r="F153" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="12">
+      <c r="G153" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="12">
+      <c r="H153" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4649,28 +4667,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="12">
+      <c r="C155" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="12">
+      <c r="D155" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="12">
+      <c r="I155" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4874,10 +4892,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="12" t="s">
+      <c r="J162" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="12" t="s">
+      <c r="K162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4921,28 +4939,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="12">
+      <c r="A164" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="12">
+      <c r="C164" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D164" t="s" s="12">
+      <c r="D164" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4967,28 +4985,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="12">
+      <c r="I166" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5134,10 +5152,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="12" t="s">
+      <c r="J171" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="12" t="s">
+      <c r="K171" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5181,28 +5199,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="12">
+      <c r="A173" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="12">
+      <c r="B173" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="12">
+      <c r="C173" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D173" t="s" s="12">
+      <c r="D173" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="12">
+      <c r="E173" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="12">
+      <c r="F173" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="12">
+      <c r="G173" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="12">
+      <c r="H173" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5227,28 +5245,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="12">
+      <c r="B175" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="12">
+      <c r="C175" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="12">
+      <c r="D175" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="12">
+      <c r="E175" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="12">
+      <c r="F175" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="12">
+      <c r="G175" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="12">
+      <c r="H175" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="12">
+      <c r="I175" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5365,10 +5383,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="12" t="s">
+      <c r="J179" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="12" t="s">
+      <c r="K179" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5412,28 +5430,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="12">
+      <c r="A181" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="12">
+      <c r="B181" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="12">
+      <c r="C181" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="12">
+      <c r="D181" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="12">
+      <c r="E181" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="12">
+      <c r="F181" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="12">
+      <c r="G181" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="12">
+      <c r="H181" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5458,28 +5476,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="12">
+      <c r="C183" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="12">
+      <c r="D183" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="12">
+      <c r="I183" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5567,10 +5585,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="12" t="s">
+      <c r="J186" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="12" t="s">
+      <c r="K186" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
